--- a/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_BlackTea_3.xlsx
+++ b/Assets/StreamingAssets/Excel/DialogueJournal/Conversation_BlackTea_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>中文角色名</t>
   </si>
@@ -46,79 +46,145 @@
     <t>约翰逊</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>久等了，李先生。</t>
+  </si>
+  <si>
+    <t>Sorry to keep you waiting, Mr. Li.</t>
+  </si>
+  <si>
+    <t>李文俊</t>
+  </si>
+  <si>
+    <t>LiWenJun</t>
+  </si>
+  <si>
+    <t>很抱歉，我们目前不接受这些付款方式。为了不影响交货时间，请您务必在装运前三十天开出信用证。</t>
+  </si>
+  <si>
+    <t>I'm sorry, but we do not accept these payment methods at the moment. To avoid affecting the delivery time, please be sure to issue the letter of credit 30 days before shipment.</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>久等了，李先生。</t>
-  </si>
-  <si>
-    <t>李文俊</t>
-  </si>
-  <si>
-    <t>很抱歉，我们目前不接受这些付款方式。为了不影响交货时间，请您务必在装运前三十天开出信用证。</t>
-  </si>
-  <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>终止谈判</t>
   </si>
   <si>
+    <t>Terminate negotiations</t>
+  </si>
+  <si>
     <t>茉 莉</t>
   </si>
   <si>
+    <t>Molly</t>
+  </si>
+  <si>
     <t>李先生，请见谅，我们没办法接受您的要求。</t>
   </si>
   <si>
+    <t>Mr. Li, please forgive us, we cannot accept your request.</t>
+  </si>
+  <si>
     <t>很抱歉，我们目前不接受这些付款方式。</t>
   </si>
   <si>
+    <t>I’m sorry, we are currently not accepting these payment methods.</t>
+  </si>
+  <si>
     <t>真遗憾！看来我们只好另找货源了。</t>
   </si>
   <si>
+    <t>That's a pity! It seems we have to find another source.</t>
+  </si>
+  <si>
     <t>结局</t>
   </si>
   <si>
     <t>谈判失败</t>
   </si>
   <si>
+    <t>Negotiation failed</t>
+  </si>
+  <si>
     <t>返回上一模块重新选择</t>
   </si>
   <si>
+    <t>Return to the previous module to reselect</t>
+  </si>
+  <si>
     <t>跳转至正确节点</t>
   </si>
   <si>
+    <t>Jump to the correct node</t>
+  </si>
+  <si>
     <t>提示</t>
   </si>
   <si>
     <t>选择错误，谈判失败，此处应选择“妥协”</t>
   </si>
   <si>
+    <t>Wrong choice, the negotiation failed. Here, you should choose 'compromise'.</t>
+  </si>
+  <si>
     <t>暂停谈判</t>
   </si>
   <si>
+    <t>Suspend negotiations</t>
+  </si>
+  <si>
     <t>李先生，让我考虑考虑……。我们先休息一下儿吧？</t>
   </si>
   <si>
+    <t>Mr. Li, let me think about it... Shall we take a break first?</t>
+  </si>
+  <si>
     <t>当然，您请便</t>
   </si>
   <si>
+    <t>Of course, please go ahead.</t>
+  </si>
+  <si>
     <t>下一步</t>
   </si>
   <si>
+    <t>Continue</t>
+  </si>
+  <si>
     <t>妥协</t>
   </si>
   <si>
+    <t>Compromise</t>
+  </si>
+  <si>
     <t>李先生，您可真厉害！说到钱，您一点儿情面也不讲！</t>
   </si>
   <si>
+    <t>Mr. Li, you are really impressive! When it comes to money, you don't show any mercy at all!</t>
+  </si>
+  <si>
     <t>（笑）您没听过这样一句中国话吗？“亲兄弟，明算账”嘛！</t>
   </si>
   <si>
+    <t>(laughs) Haven't you heard this Chinese saying? 'When it comes to close brothers, be clear about the accounts!'</t>
+  </si>
+  <si>
     <t>（笑）不对！您这是“一手交钱，一手交货”！</t>
   </si>
   <si>
+    <t>(laughs) No, you're doing 'one hand pays, one hand delivers!'</t>
+  </si>
+  <si>
     <t>进入下一模块</t>
+  </si>
+  <si>
+    <t>Enter next module</t>
   </si>
 </sst>
 </file>
@@ -800,6 +866,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,7 +1128,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1088,147 +1161,147 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1239,108 +1312,108 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
